--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.0339014791582</v>
+        <v>14.05492</v>
       </c>
       <c r="H2">
-        <v>12.0339014791582</v>
+        <v>42.16476</v>
       </c>
       <c r="I2">
-        <v>0.5226764668920966</v>
+        <v>0.5329941298006924</v>
       </c>
       <c r="J2">
-        <v>0.5226764668920966</v>
+        <v>0.5329941298006924</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.49714132510024</v>
+        <v>1.499230333333333</v>
       </c>
       <c r="N2">
-        <v>1.49714132510024</v>
+        <v>4.497691000000001</v>
       </c>
       <c r="O2">
-        <v>0.1287344074411645</v>
+        <v>0.1183245025392715</v>
       </c>
       <c r="P2">
-        <v>0.1287344074411645</v>
+        <v>0.1183245025392715</v>
       </c>
       <c r="Q2">
-        <v>18.01645120663265</v>
+        <v>21.07156239657334</v>
       </c>
       <c r="R2">
-        <v>18.01645120663265</v>
+        <v>189.64406156916</v>
       </c>
       <c r="S2">
-        <v>0.06728644524879551</v>
+        <v>0.06306626526501881</v>
       </c>
       <c r="T2">
-        <v>0.06728644524879551</v>
+        <v>0.06306626526501882</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.0339014791582</v>
+        <v>14.05492</v>
       </c>
       <c r="H3">
-        <v>12.0339014791582</v>
+        <v>42.16476</v>
       </c>
       <c r="I3">
-        <v>0.5226764668920966</v>
+        <v>0.5329941298006924</v>
       </c>
       <c r="J3">
-        <v>0.5226764668920966</v>
+        <v>0.5329941298006924</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.29685486510907</v>
+        <v>3.340648</v>
       </c>
       <c r="N3">
-        <v>3.29685486510907</v>
+        <v>10.021944</v>
       </c>
       <c r="O3">
-        <v>0.2834860345939085</v>
+        <v>0.2636556264706572</v>
       </c>
       <c r="P3">
-        <v>0.2834860345939085</v>
+        <v>0.2636556264706572</v>
       </c>
       <c r="Q3">
-        <v>39.67402663780594</v>
+        <v>46.95254038816001</v>
       </c>
       <c r="R3">
-        <v>39.67402663780594</v>
+        <v>422.5728634934401</v>
       </c>
       <c r="S3">
-        <v>0.1481714789747947</v>
+        <v>0.1405269011977843</v>
       </c>
       <c r="T3">
-        <v>0.1481714789747947</v>
+        <v>0.1405269011977843</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.0339014791582</v>
+        <v>14.05492</v>
       </c>
       <c r="H4">
-        <v>12.0339014791582</v>
+        <v>42.16476</v>
       </c>
       <c r="I4">
-        <v>0.5226764668920966</v>
+        <v>0.5329941298006924</v>
       </c>
       <c r="J4">
-        <v>0.5226764668920966</v>
+        <v>0.5329941298006924</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.26331753920787</v>
+        <v>4.215231</v>
       </c>
       <c r="N4">
-        <v>3.26331753920787</v>
+        <v>12.645693</v>
       </c>
       <c r="O4">
-        <v>0.2806022669063369</v>
+        <v>0.3326807763115224</v>
       </c>
       <c r="P4">
-        <v>0.2806022669063369</v>
+        <v>0.3326807763115224</v>
       </c>
       <c r="Q4">
-        <v>39.27044176203648</v>
+        <v>59.24473448652001</v>
       </c>
       <c r="R4">
-        <v>39.27044176203648</v>
+        <v>533.20261037868</v>
       </c>
       <c r="S4">
-        <v>0.1466642014685172</v>
+        <v>0.1773169008715787</v>
       </c>
       <c r="T4">
-        <v>0.1466642014685172</v>
+        <v>0.1773169008715787</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.0339014791582</v>
+        <v>14.05492</v>
       </c>
       <c r="H5">
-        <v>12.0339014791582</v>
+        <v>42.16476</v>
       </c>
       <c r="I5">
-        <v>0.5226764668920966</v>
+        <v>0.5329941298006924</v>
       </c>
       <c r="J5">
-        <v>0.5226764668920966</v>
+        <v>0.5329941298006924</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.57237684716374</v>
+        <v>3.615388333333333</v>
       </c>
       <c r="N5">
-        <v>3.57237684716374</v>
+        <v>10.846165</v>
       </c>
       <c r="O5">
-        <v>0.3071772910585901</v>
+        <v>0.2853390946785489</v>
       </c>
       <c r="P5">
-        <v>0.3071772910585901</v>
+        <v>0.2853390946785489</v>
       </c>
       <c r="Q5">
-        <v>42.98963102519424</v>
+        <v>50.81399379393334</v>
       </c>
       <c r="R5">
-        <v>42.98963102519424</v>
+        <v>457.3259441454</v>
       </c>
       <c r="S5">
-        <v>0.1605543411999891</v>
+        <v>0.1520840624663105</v>
       </c>
       <c r="T5">
-        <v>0.1605543411999891</v>
+        <v>0.1520840624663105</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.45867822632938</v>
+        <v>5.498465333333333</v>
       </c>
       <c r="H6">
-        <v>5.45867822632938</v>
+        <v>16.495396</v>
       </c>
       <c r="I6">
-        <v>0.2370904111339159</v>
+        <v>0.2085141534479936</v>
       </c>
       <c r="J6">
-        <v>0.2370904111339159</v>
+        <v>0.2085141534479936</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.49714132510024</v>
+        <v>1.499230333333333</v>
       </c>
       <c r="N6">
-        <v>1.49714132510024</v>
+        <v>4.497691000000001</v>
       </c>
       <c r="O6">
-        <v>0.1287344074411645</v>
+        <v>0.1183245025392715</v>
       </c>
       <c r="P6">
-        <v>0.1287344074411645</v>
+        <v>0.1183245025392715</v>
       </c>
       <c r="Q6">
-        <v>8.172412753062595</v>
+        <v>8.243466014515111</v>
       </c>
       <c r="R6">
-        <v>8.172412753062595</v>
+        <v>74.19119413063601</v>
       </c>
       <c r="S6">
-        <v>0.03052169358730675</v>
+        <v>0.02467233347913116</v>
       </c>
       <c r="T6">
-        <v>0.03052169358730675</v>
+        <v>0.02467233347913116</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.45867822632938</v>
+        <v>5.498465333333333</v>
       </c>
       <c r="H7">
-        <v>5.45867822632938</v>
+        <v>16.495396</v>
       </c>
       <c r="I7">
-        <v>0.2370904111339159</v>
+        <v>0.2085141534479936</v>
       </c>
       <c r="J7">
-        <v>0.2370904111339159</v>
+        <v>0.2085141534479936</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.29685486510907</v>
+        <v>3.340648</v>
       </c>
       <c r="N7">
-        <v>3.29685486510907</v>
+        <v>10.021944</v>
       </c>
       <c r="O7">
-        <v>0.2834860345939085</v>
+        <v>0.2636556264706572</v>
       </c>
       <c r="P7">
-        <v>0.2834860345939085</v>
+        <v>0.2636556264706572</v>
       </c>
       <c r="Q7">
-        <v>17.99646986753897</v>
+        <v>18.36843721886933</v>
       </c>
       <c r="R7">
-        <v>17.99646986753897</v>
+        <v>165.315934969824</v>
       </c>
       <c r="S7">
-        <v>0.06721182049259328</v>
+        <v>0.05497592975532948</v>
       </c>
       <c r="T7">
-        <v>0.06721182049259328</v>
+        <v>0.0549759297553295</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.45867822632938</v>
+        <v>5.498465333333333</v>
       </c>
       <c r="H8">
-        <v>5.45867822632938</v>
+        <v>16.495396</v>
       </c>
       <c r="I8">
-        <v>0.2370904111339159</v>
+        <v>0.2085141534479936</v>
       </c>
       <c r="J8">
-        <v>0.2370904111339159</v>
+        <v>0.2085141534479936</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.26331753920787</v>
+        <v>4.215231</v>
       </c>
       <c r="N8">
-        <v>3.26331753920787</v>
+        <v>12.645693</v>
       </c>
       <c r="O8">
-        <v>0.2806022669063369</v>
+        <v>0.3326807763115224</v>
       </c>
       <c r="P8">
-        <v>0.2806022669063369</v>
+        <v>0.3326807763115224</v>
       </c>
       <c r="Q8">
-        <v>17.81340039687277</v>
+        <v>23.177301525492</v>
       </c>
       <c r="R8">
-        <v>17.81340039687277</v>
+        <v>208.595713729428</v>
       </c>
       <c r="S8">
-        <v>0.06652810682593223</v>
+        <v>0.06936865044101841</v>
       </c>
       <c r="T8">
-        <v>0.06652810682593223</v>
+        <v>0.06936865044101841</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.45867822632938</v>
+        <v>5.498465333333333</v>
       </c>
       <c r="H9">
-        <v>5.45867822632938</v>
+        <v>16.495396</v>
       </c>
       <c r="I9">
-        <v>0.2370904111339159</v>
+        <v>0.2085141534479936</v>
       </c>
       <c r="J9">
-        <v>0.2370904111339159</v>
+        <v>0.2085141534479936</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.57237684716374</v>
+        <v>3.615388333333333</v>
       </c>
       <c r="N9">
-        <v>3.57237684716374</v>
+        <v>10.846165</v>
       </c>
       <c r="O9">
-        <v>0.3071772910585901</v>
+        <v>0.2853390946785489</v>
       </c>
       <c r="P9">
-        <v>0.3071772910585901</v>
+        <v>0.2853390946785489</v>
       </c>
       <c r="Q9">
-        <v>19.50045571185591</v>
+        <v>19.87908741737111</v>
       </c>
       <c r="R9">
-        <v>19.50045571185591</v>
+        <v>178.91178675634</v>
       </c>
       <c r="S9">
-        <v>0.07282879022808368</v>
+        <v>0.05949723977251451</v>
       </c>
       <c r="T9">
-        <v>0.07282879022808368</v>
+        <v>0.05949723977251452</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.78791222965858</v>
+        <v>4.576766333333333</v>
       </c>
       <c r="H10">
-        <v>3.78791222965858</v>
+        <v>13.730299</v>
       </c>
       <c r="I10">
-        <v>0.1645229175695234</v>
+        <v>0.1735612574910498</v>
       </c>
       <c r="J10">
-        <v>0.1645229175695234</v>
+        <v>0.1735612574910498</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.49714132510024</v>
+        <v>1.499230333333333</v>
       </c>
       <c r="N10">
-        <v>1.49714132510024</v>
+        <v>4.497691000000001</v>
       </c>
       <c r="O10">
-        <v>0.1287344074411645</v>
+        <v>0.1183245025392715</v>
       </c>
       <c r="P10">
-        <v>0.1287344074411645</v>
+        <v>0.1183245025392715</v>
       </c>
       <c r="Q10">
-        <v>5.671039934874451</v>
+        <v>6.861626915512112</v>
       </c>
       <c r="R10">
-        <v>5.671039934874451</v>
+        <v>61.75464223960901</v>
       </c>
       <c r="S10">
-        <v>0.02117976030380416</v>
+        <v>0.02053654945271887</v>
       </c>
       <c r="T10">
-        <v>0.02117976030380416</v>
+        <v>0.02053654945271887</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.78791222965858</v>
+        <v>4.576766333333333</v>
       </c>
       <c r="H11">
-        <v>3.78791222965858</v>
+        <v>13.730299</v>
       </c>
       <c r="I11">
-        <v>0.1645229175695234</v>
+        <v>0.1735612574910498</v>
       </c>
       <c r="J11">
-        <v>0.1645229175695234</v>
+        <v>0.1735612574910498</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.29685486510907</v>
+        <v>3.340648</v>
       </c>
       <c r="N11">
-        <v>3.29685486510907</v>
+        <v>10.021944</v>
       </c>
       <c r="O11">
-        <v>0.2834860345939085</v>
+        <v>0.2636556264706572</v>
       </c>
       <c r="P11">
-        <v>0.2834860345939085</v>
+        <v>0.2636556264706572</v>
       </c>
       <c r="Q11">
-        <v>12.48819686295603</v>
+        <v>15.28936529791734</v>
       </c>
       <c r="R11">
-        <v>12.48819686295603</v>
+        <v>137.604287681256</v>
       </c>
       <c r="S11">
-        <v>0.04663994950160467</v>
+        <v>0.04576040207483777</v>
       </c>
       <c r="T11">
-        <v>0.04663994950160467</v>
+        <v>0.04576040207483779</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.78791222965858</v>
+        <v>4.576766333333333</v>
       </c>
       <c r="H12">
-        <v>3.78791222965858</v>
+        <v>13.730299</v>
       </c>
       <c r="I12">
-        <v>0.1645229175695234</v>
+        <v>0.1735612574910498</v>
       </c>
       <c r="J12">
-        <v>0.1645229175695234</v>
+        <v>0.1735612574910498</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.26331753920787</v>
+        <v>4.215231</v>
       </c>
       <c r="N12">
-        <v>3.26331753920787</v>
+        <v>12.645693</v>
       </c>
       <c r="O12">
-        <v>0.2806022669063369</v>
+        <v>0.3326807763115224</v>
       </c>
       <c r="P12">
-        <v>0.2806022669063369</v>
+        <v>0.3326807763115224</v>
       </c>
       <c r="Q12">
-        <v>12.36116041602483</v>
+        <v>19.292127328023</v>
       </c>
       <c r="R12">
-        <v>12.36116041602483</v>
+        <v>173.629145952207</v>
       </c>
       <c r="S12">
-        <v>0.04616550362805267</v>
+        <v>0.05774049387972648</v>
       </c>
       <c r="T12">
-        <v>0.04616550362805267</v>
+        <v>0.05774049387972648</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.78791222965858</v>
+        <v>4.576766333333333</v>
       </c>
       <c r="H13">
-        <v>3.78791222965858</v>
+        <v>13.730299</v>
       </c>
       <c r="I13">
-        <v>0.1645229175695234</v>
+        <v>0.1735612574910498</v>
       </c>
       <c r="J13">
-        <v>0.1645229175695234</v>
+        <v>0.1735612574910498</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.57237684716374</v>
+        <v>3.615388333333333</v>
       </c>
       <c r="N13">
-        <v>3.57237684716374</v>
+        <v>10.846165</v>
       </c>
       <c r="O13">
-        <v>0.3071772910585901</v>
+        <v>0.2853390946785489</v>
       </c>
       <c r="P13">
-        <v>0.3071772910585901</v>
+        <v>0.2853390946785489</v>
       </c>
       <c r="Q13">
-        <v>13.53184994832069</v>
+        <v>16.54678760592611</v>
       </c>
       <c r="R13">
-        <v>13.53184994832069</v>
+        <v>148.921088453335</v>
       </c>
       <c r="S13">
-        <v>0.05053770413606192</v>
+        <v>0.04952381208376667</v>
       </c>
       <c r="T13">
-        <v>0.05053770413606192</v>
+        <v>0.04952381208376667</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.74312255952082</v>
+        <v>2.239594666666667</v>
       </c>
       <c r="H14">
-        <v>1.74312255952082</v>
+        <v>6.718783999999999</v>
       </c>
       <c r="I14">
-        <v>0.07571020440446412</v>
+        <v>0.08493045926026414</v>
       </c>
       <c r="J14">
-        <v>0.07571020440446412</v>
+        <v>0.08493045926026414</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.49714132510024</v>
+        <v>1.499230333333333</v>
       </c>
       <c r="N14">
-        <v>1.49714132510024</v>
+        <v>4.497691000000001</v>
       </c>
       <c r="O14">
-        <v>0.1287344074411645</v>
+        <v>0.1183245025392715</v>
       </c>
       <c r="P14">
-        <v>0.1287344074411645</v>
+        <v>0.1183245025392715</v>
       </c>
       <c r="Q14">
-        <v>2.609700818573122</v>
+        <v>3.357668258638222</v>
       </c>
       <c r="R14">
-        <v>2.609700818573122</v>
+        <v>30.219014327744</v>
       </c>
       <c r="S14">
-        <v>0.009746508301258134</v>
+        <v>0.01004935434240262</v>
       </c>
       <c r="T14">
-        <v>0.009746508301258134</v>
+        <v>0.01004935434240262</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.74312255952082</v>
+        <v>2.239594666666667</v>
       </c>
       <c r="H15">
-        <v>1.74312255952082</v>
+        <v>6.718783999999999</v>
       </c>
       <c r="I15">
-        <v>0.07571020440446412</v>
+        <v>0.08493045926026414</v>
       </c>
       <c r="J15">
-        <v>0.07571020440446412</v>
+        <v>0.08493045926026414</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.29685486510907</v>
+        <v>3.340648</v>
       </c>
       <c r="N15">
-        <v>3.29685486510907</v>
+        <v>10.021944</v>
       </c>
       <c r="O15">
-        <v>0.2834860345939085</v>
+        <v>0.2636556264706572</v>
       </c>
       <c r="P15">
-        <v>0.2834860345939085</v>
+        <v>0.2636556264706572</v>
       </c>
       <c r="Q15">
-        <v>5.74682209083759</v>
+        <v>7.481697444010667</v>
       </c>
       <c r="R15">
-        <v>5.74682209083759</v>
+        <v>67.335276996096</v>
       </c>
       <c r="S15">
-        <v>0.0214627856249158</v>
+        <v>0.02239239344270557</v>
       </c>
       <c r="T15">
-        <v>0.0214627856249158</v>
+        <v>0.02239239344270557</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.74312255952082</v>
+        <v>2.239594666666667</v>
       </c>
       <c r="H16">
-        <v>1.74312255952082</v>
+        <v>6.718783999999999</v>
       </c>
       <c r="I16">
-        <v>0.07571020440446412</v>
+        <v>0.08493045926026414</v>
       </c>
       <c r="J16">
-        <v>0.07571020440446412</v>
+        <v>0.08493045926026414</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.26331753920787</v>
+        <v>4.215231</v>
       </c>
       <c r="N16">
-        <v>3.26331753920787</v>
+        <v>12.645693</v>
       </c>
       <c r="O16">
-        <v>0.2806022669063369</v>
+        <v>0.3326807763115224</v>
       </c>
       <c r="P16">
-        <v>0.2806022669063369</v>
+        <v>0.3326807763115224</v>
       </c>
       <c r="Q16">
-        <v>5.688362421473206</v>
+        <v>9.440408866368001</v>
       </c>
       <c r="R16">
-        <v>5.688362421473206</v>
+        <v>84.963679797312</v>
       </c>
       <c r="S16">
-        <v>0.02124445498383476</v>
+        <v>0.0282547311191988</v>
       </c>
       <c r="T16">
-        <v>0.02124445498383476</v>
+        <v>0.0282547311191988</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.74312255952082</v>
+        <v>2.239594666666667</v>
       </c>
       <c r="H17">
-        <v>1.74312255952082</v>
+        <v>6.718783999999999</v>
       </c>
       <c r="I17">
-        <v>0.07571020440446412</v>
+        <v>0.08493045926026414</v>
       </c>
       <c r="J17">
-        <v>0.07571020440446412</v>
+        <v>0.08493045926026414</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.57237684716374</v>
+        <v>3.615388333333333</v>
       </c>
       <c r="N17">
-        <v>3.57237684716374</v>
+        <v>10.846165</v>
       </c>
       <c r="O17">
-        <v>0.3071772910585901</v>
+        <v>0.2853390946785489</v>
       </c>
       <c r="P17">
-        <v>0.3071772910585901</v>
+        <v>0.2853390946785489</v>
       </c>
       <c r="Q17">
-        <v>6.227090673400975</v>
+        <v>8.097004429262222</v>
       </c>
       <c r="R17">
-        <v>6.227090673400975</v>
+        <v>72.87303986335999</v>
       </c>
       <c r="S17">
-        <v>0.02325645549445542</v>
+        <v>0.02423398035595715</v>
       </c>
       <c r="T17">
-        <v>0.02325645549445542</v>
+        <v>0.02423398035595715</v>
       </c>
     </row>
   </sheetData>
